--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelIEnumerableRenderTest/TestPanelRenderEvents.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelIEnumerableRenderTest/TestPanelRenderEvents.xlsx
@@ -49,7 +49,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="2">
+  <x:borders count="4">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -74,10 +74,44 @@
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="thin">
+      <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -85,20 +119,34 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -397,23 +445,23 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B4"/>
+  <x:dimension ref="A1:C4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:2">
-      <x:c r="B2" s="0" t="s">
+    <x:row r="2" spans="1:3">
+      <x:c r="B2" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="B3" s="0" t="s">
+    <x:row r="3" spans="1:3">
+      <x:c r="B3" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2">
+    <x:row r="4" spans="1:3">
       <x:c r="B4" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
